--- a/file_service/hisobot/26-06-2025_hisobot.xlsx
+++ b/file_service/hisobot/26-06-2025_hisobot.xlsx
@@ -828,7 +828,7 @@
         <v>120</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" s="7" t="n">
         <v>82</v>

--- a/file_service/hisobot/26-06-2025_hisobot.xlsx
+++ b/file_service/hisobot/26-06-2025_hisobot.xlsx
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F6" s="9" t="n"/>
       <c r="G6" s="14" t="n"/>
